--- a/parts/parts.xlsx
+++ b/parts/parts.xlsx
@@ -146,7 +146,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,20 +178,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -214,11 +200,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -228,18 +213,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -521,7 +503,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -530,9 +512,9 @@
     <col min="2" max="2" width="33.36328125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="5"/>
     <col min="4" max="4" width="8.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="8"/>
-    <col min="7" max="7" width="8.7265625" style="13"/>
+    <col min="5" max="5" width="8.90625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="7"/>
+    <col min="7" max="7" width="8.7265625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -548,13 +530,13 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -568,13 +550,13 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
         <v>265.52999999999997</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="11">
         <f>PRODUCT(E2, F2)</f>
         <v>265.52999999999997</v>
       </c>
@@ -592,13 +574,13 @@
       <c r="D3" s="1">
         <v>42154</v>
       </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
         <v>18</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="11">
         <f t="shared" ref="G3:G16" si="0">PRODUCT(E3, F3)</f>
         <v>18</v>
       </c>
@@ -619,13 +601,13 @@
       <c r="D4" s="3">
         <v>42161</v>
       </c>
-      <c r="E4" s="12">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
         <v>5.99</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="11">
         <f t="shared" si="0"/>
         <v>5.99</v>
       </c>
@@ -647,13 +629,13 @@
       <c r="D5" s="3">
         <v>42162</v>
       </c>
-      <c r="E5" s="12">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
         <v>11.99</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="11">
         <f t="shared" si="0"/>
         <v>11.99</v>
       </c>
@@ -668,46 +650,46 @@
       <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>42135</v>
       </c>
-      <c r="E6" s="12">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
         <v>4.79</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="11">
         <f t="shared" si="0"/>
         <v>4.79</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <v>42135</v>
       </c>
-      <c r="E7" s="12">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
         <v>19.989999999999998</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="11">
         <f t="shared" si="0"/>
         <v>19.989999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -716,25 +698,25 @@
       <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>42133</v>
       </c>
-      <c r="E8" s="12">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
         <v>63.64</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="11">
         <f t="shared" si="0"/>
         <v>63.64</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -743,19 +725,19 @@
       <c r="D9" s="3">
         <v>42158</v>
       </c>
-      <c r="E9" s="12">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
         <v>15.99</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="11">
         <f t="shared" si="0"/>
         <v>15.99</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -764,22 +746,22 @@
       <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>42135</v>
       </c>
-      <c r="E10" s="12">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
         <v>45</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="11">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -788,88 +770,88 @@
       <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <v>42133</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <v>2</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>7.49</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="11">
         <f t="shared" si="0"/>
         <v>14.98</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="9">
         <v>42133</v>
       </c>
-      <c r="E12" s="12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8">
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
         <v>18.989999999999998</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="11">
         <f t="shared" si="0"/>
         <v>18.989999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="9">
         <v>42133</v>
       </c>
-      <c r="E13" s="12">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8">
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
         <v>8.9499999999999993</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="11">
         <f t="shared" si="0"/>
         <v>8.9499999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="9">
         <v>42133</v>
       </c>
-      <c r="E14" s="12">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
         <v>10.31</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="11">
         <f t="shared" si="0"/>
         <v>10.31</v>
       </c>
@@ -878,28 +860,28 @@
       <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <v>42133</v>
       </c>
-      <c r="E15" s="12">
-        <v>1</v>
-      </c>
-      <c r="F15" s="8">
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7">
         <v>15.95</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="11">
         <f t="shared" si="0"/>
         <v>15.95</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
+      <c r="A16" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -908,36 +890,22 @@
       <c r="C16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="9">
         <v>42132</v>
       </c>
-      <c r="E16" s="12">
-        <v>1</v>
-      </c>
-      <c r="F16" s="8">
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7">
         <v>19.95</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="11">
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="http://www.amazon.com/gp/help/seller/at-a-glance.html/ref=oh_aui_sellerprofile_o03_s00?ie=UTF8&amp;isAmazonFulfilled=1&amp;marketplaceSeller=1&amp;orderID=109-2253385-5414625&amp;seller=A1K5RDMQ6V4659"/>
-    <hyperlink ref="A7" r:id="rId2" display="https://www.amazon.com/gp/product/B00JDVRCI0/ref=oh_aui_detailpage_o03_s00?ie=UTF8&amp;psc=1"/>
-    <hyperlink ref="B9" r:id="rId3" display="http://www.amazon.com/gp/help/seller/at-a-glance.html/ref=dp_merchant_link?ie=UTF8&amp;seller=A2HIRA0BE7P4NT"/>
-    <hyperlink ref="A10" r:id="rId4" display="https://www.amazon.com/gp/product/B00655SI7G/ref=oh_aui_detailpage_o06_s00?ie=UTF8&amp;psc=1"/>
-    <hyperlink ref="A12" r:id="rId5" display="https://www.amazon.com/gp/product/B003CP0OT2/ref=oh_aui_detailpage_o08_s00?ie=UTF8&amp;psc=1"/>
-    <hyperlink ref="B12" r:id="rId6" display="https://www.amazon.com/gp/product/B003CP0OT2/ref=oh_aui_detailpage_o08_s00?ie=UTF8&amp;psc=1"/>
-    <hyperlink ref="A13" r:id="rId7" display="https://www.amazon.com/gp/product/B005LFXBJG/ref=oh_aui_detailpage_o09_s00?ie=UTF8&amp;psc=1"/>
-    <hyperlink ref="B13" r:id="rId8" display="https://www.amazon.com/gp/product/B005LFXBJG/ref=oh_aui_detailpage_o09_s00?ie=UTF8&amp;psc=1"/>
-    <hyperlink ref="A14" r:id="rId9" display="https://www.amazon.com/gp/product/B003B4BBFK/ref=oh_aui_detailpage_o00_s00?ie=UTF8&amp;psc=1"/>
-    <hyperlink ref="B14" r:id="rId10" display="https://www.amazon.com/gp/product/B003B4BBFK/ref=oh_aui_detailpage_o00_s00?ie=UTF8&amp;psc=1"/>
-    <hyperlink ref="B15" r:id="rId11" display="https://www.amazon.com/gp/product/B003ELVLKU/ref=oh_aui_detailpage_o00_s00?ie=UTF8&amp;psc=1"/>
-    <hyperlink ref="A16" r:id="rId12" display="https://www.amazon.com/gp/product/0983497354/ref=oh_aui_detailpage_o01_s00?ie=UTF8&amp;psc=1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>